--- a/public/assets/downloads/CotizacionCARLOS ALBERTO HUARACHI SOSA.xlsx
+++ b/public/assets/downloads/CotizacionCARLOS ALBERTO HUARACHI SOSA.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>COTIZACION Nº20240000001</t>
   </si>
@@ -50,7 +50,7 @@
     <t>PESO:</t>
   </si>
   <si>
-    <t>162 Kg</t>
+    <t>1.109 Tn</t>
   </si>
   <si>
     <t>CORREO:</t>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>NUEVO</t>
+  </si>
+  <si>
+    <t>MANUAL</t>
   </si>
   <si>
     <t>VOLUMEN:</t>
@@ -177,7 +180,16 @@
     <t>VALOR PERU SOLES</t>
   </si>
   <si>
-    <t>BOMBA DE ENGRANAJE INTERNO</t>
+    <t>MOTOR HIDRAULICO ORBITAL</t>
+  </si>
+  <si>
+    <t>BOMBA DE ENGRANAJE EXTERNA</t>
+  </si>
+  <si>
+    <t>BOMBA DE PALETAS</t>
+  </si>
+  <si>
+    <t>CARTUCHO HIDRAULICO DE PALETAS</t>
   </si>
   <si>
     <t>RESUMEN DE PAGOS DE SERVICIO DE IMPORTACIÓN</t>
@@ -631,6 +643,15 @@
     <t>CIF Valorizado</t>
   </si>
   <si>
+    <t>VALVULA DE INVERSION MANUAL</t>
+  </si>
+  <si>
+    <t>VALVULA NEUMÁTICA DE DISTRIBUCIÓN</t>
+  </si>
+  <si>
+    <t>VALVULA DISTRIBUIDORA HIDRÁULICA</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
@@ -671,7 +692,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="14">
+  <numFmts count="13">
     <numFmt numFmtId="164" formatCode="0.0\ &quot;cm&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;cm&quot;"/>
     <numFmt numFmtId="166" formatCode="_-[$$-540A]* #,##0.00_ ;_-[$$-540A]* \-#,##0.00\ ;_-[$$-540A]* &quot;-&quot;??_ ;_-@_ "/>
@@ -680,12 +701,11 @@
     <numFmt numFmtId="169" formatCode="[$$-409]#,##0"/>
     <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="171" formatCode="_-[$S/-280A]\ * #,##0.00_-;\-[$S/-280A]\ * #,##0.00_-;_-[$S/-280A]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="173" formatCode="0.0\ &quot;kg&quot;"/>
-    <numFmt numFmtId="174" formatCode="#,##0.000\ &quot;m3&quot;"/>
-    <numFmt numFmtId="175" formatCode="&quot;$&quot;#,##0_-"/>
-    <numFmt numFmtId="176" formatCode="0.00&quot; Kg&quot;"/>
-    <numFmt numFmtId="177" formatCode="&quot;S/.&quot; #,##0.00_-"/>
+    <numFmt numFmtId="172" formatCode="0.0\ &quot;kg&quot;"/>
+    <numFmt numFmtId="173" formatCode="#,##0.000\ &quot;m3&quot;"/>
+    <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0_-"/>
+    <numFmt numFmtId="175" formatCode="0.00&quot; tn&quot;"/>
+    <numFmt numFmtId="176" formatCode="&quot;S/.&quot; #,##0.00_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -937,7 +957,7 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -1353,14 +1373,6 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="170" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="2" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="172" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="12" numFmtId="166" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1390,9 +1402,6 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="170" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="16" numFmtId="0" fillId="7" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1414,12 +1423,12 @@
     <xf xfId="0" fontId="2" numFmtId="14" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="172" fillId="4" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="173" fillId="4" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="174" fillId="4" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="17" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1479,9 +1488,6 @@
     </xf>
     <xf xfId="0" fontId="19" numFmtId="171" fillId="8" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="171" fillId="5" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="20" numFmtId="0" fillId="9" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -1520,37 +1526,45 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="10" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="175" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="174" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="24" numFmtId="10" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="11" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="12" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="11" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="174" fillId="0" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="10" fillId="0" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="175" fillId="0" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="10" fillId="0" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="5" numFmtId="174" fillId="0" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="176" fillId="0" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="5" numFmtId="175" fillId="0" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="177" fillId="0" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="4" fillId="4" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="175" fillId="5" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="174" fillId="5" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="177" fillId="5" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="176" fillId="5" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="175" fillId="2" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="174" fillId="2" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="25" numFmtId="175" fillId="5" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="174" fillId="2" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="9" numFmtId="174" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="5" numFmtId="174" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="25" numFmtId="176" fillId="5" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="4" numFmtId="174" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2077,7 +2091,7 @@
   <dimension ref="A1:Q113"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70" showGridLines="false" showRowColHeaders="1" topLeftCell="A25">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2131,10 +2145,10 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -2150,10 +2164,10 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="5"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2205,11 +2219,11 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2229,7 +2243,7 @@
       <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="114" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -2243,12 +2257,12 @@
       <c r="H8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="70" t="str">
+      <c r="I8" s="65" t="str">
         <f>+'2'!D5</f>
-        <v>Total</v>
-      </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
+        <v>BOMBA DE ENGRANAJE EXTERNA</v>
+      </c>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -2265,23 +2279,23 @@
       <c r="D9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="66">
         <f>+TODAY()</f>
-        <v>45917</v>
-      </c>
-      <c r="F9" s="72"/>
+        <v>45940</v>
+      </c>
+      <c r="F9" s="67"/>
       <c r="G9" s="3"/>
       <c r="H9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="73">
+      <c r="I9" s="68">
         <f>+'2'!D6</f>
-        <v>162</v>
-      </c>
-      <c r="J9" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="73"/>
+      <c r="K9" s="68"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2341,20 +2355,20 @@
         <v>18</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="121">
-        <f>'2'!C7</f>
+      <c r="I11" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="115">
+        <f>'2'!I7</f>
         <v>0</v>
       </c>
-      <c r="K11" s="74"/>
+      <c r="K11" s="69"/>
       <c r="L11" s="20"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -2382,22 +2396,22 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
+      <c r="A13" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2407,11 +2421,11 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
+      <c r="A14" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2420,11 +2434,11 @@
       <c r="I14" s="1"/>
       <c r="J14" s="25">
         <f>'2'!D18</f>
-        <v/>
+        <v>317.80331152357</v>
       </c>
       <c r="K14" s="26">
-        <f>'2'!C11</f>
-        <v>1635</v>
+        <f>'2'!I11</f>
+        <v>450</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -2434,11 +2448,11 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
+      <c r="A15" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -2450,8 +2464,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="K15" s="28">
-        <f>'2'!C14 + '2'!C17</f>
-        <v>218</v>
+        <f>'2'!I14 + '2'!I17</f>
+        <v>26.704967285352</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2462,7 +2476,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2477,7 +2491,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -2525,24 +2539,24 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
+      <c r="A19" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2553,7 +2567,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2571,13 +2585,13 @@
         <v>0</v>
       </c>
       <c r="K20" s="26">
-        <f>'2'!C28</f>
+        <f>'2'!I28</f>
         <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -2585,7 +2599,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2602,8 +2616,8 @@
         <v>0</v>
       </c>
       <c r="K21" s="26">
-        <f>'2'!C29</f>
-        <v>296.48</v>
+        <f>'2'!I29</f>
+        <v>76.272794765656</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2617,7 +2631,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2634,8 +2648,8 @@
         <v>0</v>
       </c>
       <c r="K22" s="26">
-        <f>'2'!C30</f>
-        <v>37.06</v>
+        <f>'2'!I30</f>
+        <v>9.534099345707</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -2646,7 +2660,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -2657,14 +2671,14 @@
       <c r="H23" s="18"/>
       <c r="I23" s="32">
         <f>MAX('2'!C30:C30)</f>
-        <v>37.06</v>
+        <v>32.543059100013</v>
       </c>
       <c r="J23" s="27">
         <f>'2'!D31</f>
-        <v>76.528899999999</v>
+        <v>13.125276765923</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -2675,7 +2689,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2687,10 +2701,10 @@
       <c r="I24" s="26"/>
       <c r="J24" s="25">
         <f>SUM(J20:J23)</f>
-        <v>76.528899999999</v>
+        <v>13.125276765923</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L24" s="33"/>
       <c r="M24" s="1"/>
@@ -2711,8 +2725,8 @@
       <c r="I25" s="34"/>
       <c r="J25" s="35"/>
       <c r="K25" s="26">
-        <f>'2'!C31</f>
-        <v>76.528899999999</v>
+        <f>'2'!I31</f>
+        <v>19.687915148885</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2723,7 +2737,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -2733,14 +2747,14 @@
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J26" s="27">
         <f>'2'!D37</f>
         <v/>
       </c>
       <c r="K26" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2751,7 +2765,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2763,10 +2777,10 @@
       <c r="I27" s="1"/>
       <c r="J27" s="25">
         <f>J24+J26</f>
-        <v>76.528899999999</v>
+        <v>13.125276765923</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2795,23 +2809,23 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="15.6">
-      <c r="A29" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
+      <c r="A29" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="38"/>
       <c r="J29" s="38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K29" s="38">
         <f>K14</f>
-        <v>1635</v>
+        <v>450</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2822,7 +2836,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2834,11 +2848,11 @@
       <c r="I30" s="25"/>
       <c r="J30" s="25">
         <f>J14</f>
-        <v/>
+        <v>317.80331152357</v>
       </c>
       <c r="K30" s="26">
-        <f>IF(J11&lt;1, 280, 280*J11)</f>
-        <v>280</v>
+        <f>IF(J11&lt;1, 445, 445*J11)</f>
+        <v>445</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2849,7 +2863,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2865,10 +2879,10 @@
       </c>
       <c r="K31" s="26">
         <f>K20+K21+K22+K25</f>
-        <v>410.0689</v>
+        <v>105.49480926025</v>
       </c>
       <c r="L31" s="30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -2878,7 +2892,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -2890,11 +2904,11 @@
       <c r="I32" s="27"/>
       <c r="J32" s="27">
         <f>J27</f>
-        <v>76.528899999999</v>
+        <v>13.125276765923</v>
       </c>
       <c r="K32" s="28">
         <f>K29+K30+K31</f>
-        <v>2325.0689</v>
+        <v>1000.4948092602</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2905,7 +2919,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2920,16 +2934,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="K33" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L33" s="1"/>
-      <c r="M33" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="80"/>
+      <c r="M33" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="N33" s="75"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="75"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="7"/>
@@ -2944,41 +2958,41 @@
       <c r="J34" s="35"/>
       <c r="K34" s="26"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="81"/>
-      <c r="Q34" s="81"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="76"/>
+      <c r="Q34" s="76"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="82" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="84"/>
+      <c r="A35" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="79"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="N35" s="87" t="s">
+      <c r="M35" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="O35" s="89" t="s">
+      <c r="N35" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="P35" s="91" t="s">
+      <c r="O35" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="Q35" s="93" t="s">
+      <c r="P35" s="86" t="s">
         <v>50</v>
+      </c>
+      <c r="Q35" s="88" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2987,92 +3001,122 @@
         <v>1</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D36" s="41"/>
       <c r="E36" s="41"/>
       <c r="F36" s="41">
         <f>'2'!C10</f>
-        <v>45</v>
-      </c>
-      <c r="G36" s="124">
+        <v>24</v>
+      </c>
+      <c r="G36" s="118">
         <f>'2'!C8</f>
-        <v>36.333333333333</v>
+        <v>64</v>
       </c>
       <c r="H36" s="42"/>
-      <c r="I36" s="124">
+      <c r="I36" s="118">
         <f>'2'!C46</f>
-        <v>51.668197777777</v>
-      </c>
-      <c r="J36" s="122">
+        <v>83.909461313393</v>
+      </c>
+      <c r="J36" s="116">
         <f>'2'!C44</f>
-        <v>2325.0689</v>
-      </c>
-      <c r="K36" s="123">
+        <v>2013.8270715214</v>
+      </c>
+      <c r="K36" s="117">
         <f>'2'!C47</f>
-        <v>191.17233177778</v>
+        <v>310.46500685955</v>
       </c>
       <c r="L36" s="42"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="90"/>
-      <c r="P36" s="92"/>
-      <c r="Q36" s="94"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="89"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="39"/>
-      <c r="B37" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="41"/>
+      <c r="B37" s="41">
+        <v>2</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>53</v>
+      </c>
       <c r="D37" s="41"/>
       <c r="E37" s="41"/>
-      <c r="F37" s="65">
-        <f>SUM(F36:F36)</f>
-        <v>45</v>
-      </c>
-      <c r="G37" s="63"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="125">
-        <f>SUM(J36:J36)</f>
-        <v>2325.0689</v>
-      </c>
-      <c r="K37" s="95"/>
+      <c r="F37" s="59">
+        <f>'2'!D10</f>
+        <v>10</v>
+      </c>
+      <c r="G37" s="118">
+        <f>'2'!D8</f>
+        <v>30</v>
+      </c>
+      <c r="H37" s="58"/>
+      <c r="I37" s="119">
+        <f>'2'!D46</f>
+        <v>39.332559990653</v>
+      </c>
+      <c r="J37" s="116">
+        <f>'2'!D44</f>
+        <v>393.32559990653</v>
+      </c>
+      <c r="K37" s="117">
+        <f>'2'!D47</f>
+        <v>145.53047196542</v>
+      </c>
       <c r="L37" s="42"/>
       <c r="M37" s="39">
         <v>1</v>
       </c>
-      <c r="N37" s="40" t="str">
+      <c r="N37" s="40">
         <f>+B37</f>
-        <v>TOTAL</v>
+        <v>2</v>
       </c>
       <c r="O37" s="43">
         <f>+F37</f>
-        <v>45</v>
-      </c>
-      <c r="P37" s="44" t="str">
+        <v>10</v>
+      </c>
+      <c r="P37" s="44">
         <f>+H37</f>
         <v/>
       </c>
-      <c r="Q37" s="45" t="e">
+      <c r="Q37" s="45">
         <f>P37*3.8</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="15.6">
       <c r="A38" s="46"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="34"/>
+      <c r="B38" s="41">
+        <v>3</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="41"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="41">
+        <f>'2'!E10</f>
+        <v>12</v>
+      </c>
+      <c r="G38" s="118">
+        <f>'2'!E8</f>
+        <v>195.5</v>
+      </c>
+      <c r="H38" s="42"/>
+      <c r="I38" s="120">
+        <f>'2'!E46</f>
+        <v>256.31718260576</v>
+      </c>
+      <c r="J38" s="121">
+        <f>'2'!E44</f>
+        <v>3075.8061912691</v>
+      </c>
+      <c r="K38" s="122">
+        <f>'2'!E47</f>
+        <v>948.37357564129</v>
+      </c>
+      <c r="L38" s="41"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -3081,51 +3125,78 @@
     </row>
     <row r="39" spans="1:17" customHeight="1" ht="15.6">
       <c r="A39" s="46"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="96" t="s">
-        <v>52</v>
-      </c>
-      <c r="N39" s="96"/>
-      <c r="O39" s="96"/>
-      <c r="P39" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q39" s="98"/>
+      <c r="B39" s="41">
+        <v>4</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="41"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="41">
+        <f>'2'!F10</f>
+        <v>12</v>
+      </c>
+      <c r="G39" s="118">
+        <f>'2'!F8</f>
+        <v>108.75</v>
+      </c>
+      <c r="H39" s="42"/>
+      <c r="I39" s="120">
+        <f>'2'!F46</f>
+        <v>142.58052996612</v>
+      </c>
+      <c r="J39" s="121">
+        <f>'2'!F44</f>
+        <v>1710.9663595934</v>
+      </c>
+      <c r="K39" s="122">
+        <f>'2'!F47</f>
+        <v>527.54796087463</v>
+      </c>
+      <c r="L39" s="42"/>
+      <c r="M39" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="N39" s="90"/>
+      <c r="O39" s="90"/>
+      <c r="P39" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q39" s="92"/>
     </row>
     <row r="40" spans="1:17" customHeight="1" ht="18">
-      <c r="A40" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="96"/>
-      <c r="N40" s="96"/>
-      <c r="O40" s="96"/>
-      <c r="P40" s="99"/>
-      <c r="Q40" s="100"/>
+      <c r="A40" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="124" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="123"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="123"/>
+      <c r="F40" s="124">
+        <f>SUM(F36:F39)</f>
+        <v>58</v>
+      </c>
+      <c r="G40" s="123"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="123"/>
+      <c r="J40" s="125">
+        <f>SUM(J36:J39)</f>
+        <v>7193.9252222904</v>
+      </c>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="90"/>
+      <c r="N40" s="90"/>
+      <c r="O40" s="90"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="94"/>
     </row>
     <row r="41" spans="1:17" customHeight="1" ht="21">
-      <c r="A41" s="53" t="s">
-        <v>55</v>
+      <c r="A41" s="49" t="s">
+        <v>59</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3138,22 +3209,22 @@
       <c r="J41" s="3"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="N41" s="79"/>
-      <c r="O41" s="54" t="e">
+      <c r="M41" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="N41" s="74"/>
+      <c r="O41" s="50" t="e">
         <f>+J31</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P41" s="55" t="s">
-        <v>57</v>
+      <c r="P41" s="51" t="s">
+        <v>61</v>
       </c>
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17" customHeight="1" ht="21">
-      <c r="A42" s="53" t="s">
-        <v>58</v>
+      <c r="A42" s="49" t="s">
+        <v>62</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3166,22 +3237,22 @@
       <c r="J42" s="3"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="N42" s="79"/>
-      <c r="O42" s="54">
+      <c r="M42" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="N42" s="74"/>
+      <c r="O42" s="50">
         <f>+J32</f>
-        <v>76.528899999999</v>
-      </c>
-      <c r="P42" s="55" t="s">
-        <v>60</v>
+        <v>13.125276765923</v>
+      </c>
+      <c r="P42" s="51" t="s">
+        <v>64</v>
       </c>
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="1:17" customHeight="1" ht="18">
-      <c r="A43" s="53" t="s">
-        <v>61</v>
+      <c r="A43" s="49" t="s">
+        <v>65</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3201,8 +3272,8 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" customHeight="1" ht="18">
-      <c r="A44" s="53" t="s">
-        <v>62</v>
+      <c r="A44" s="49" t="s">
+        <v>66</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3215,22 +3286,22 @@
       <c r="J44" s="3"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="101" t="s">
-        <v>63</v>
-      </c>
-      <c r="N44" s="101"/>
-      <c r="O44" s="102" t="e">
+      <c r="M44" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="N44" s="95"/>
+      <c r="O44" s="96" t="e">
         <f>+O41+O42+J14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P44" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q44" s="105"/>
+      <c r="P44" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q44" s="99"/>
     </row>
     <row r="45" spans="1:17" customHeight="1" ht="18">
-      <c r="A45" s="53" t="s">
-        <v>65</v>
+      <c r="A45" s="49" t="s">
+        <v>69</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3243,15 +3314,15 @@
       <c r="J45" s="3"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="101"/>
-      <c r="N45" s="101"/>
-      <c r="O45" s="103"/>
-      <c r="P45" s="104"/>
-      <c r="Q45" s="105"/>
+      <c r="M45" s="95"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="97"/>
+      <c r="P45" s="98"/>
+      <c r="Q45" s="99"/>
     </row>
     <row r="46" spans="1:17" customHeight="1" ht="18">
-      <c r="A46" s="53" t="s">
-        <v>66</v>
+      <c r="A46" s="49" t="s">
+        <v>70</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3271,8 +3342,8 @@
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="1:17" customHeight="1" ht="18">
-      <c r="A47" s="53" t="s">
-        <v>67</v>
+      <c r="A47" s="49" t="s">
+        <v>71</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3292,8 +3363,8 @@
       <c r="Q47" s="1"/>
     </row>
     <row r="48" spans="1:17" customHeight="1" ht="18">
-      <c r="A48" s="53" t="s">
-        <v>68</v>
+      <c r="A48" s="49" t="s">
+        <v>72</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3446,19 +3517,19 @@
       <c r="Q55" s="1"/>
     </row>
     <row r="56" spans="1:17" customHeight="1" ht="21">
-      <c r="A56" s="106" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="106"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="106"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="106"/>
-      <c r="H56" s="106"/>
-      <c r="I56" s="106"/>
-      <c r="J56" s="106"/>
-      <c r="K56" s="106"/>
+      <c r="A56" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="100"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="100"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="100"/>
+      <c r="K56" s="100"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -3524,8 +3595,8 @@
       <c r="Q59" s="1"/>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" s="56" t="s">
-        <v>70</v>
+      <c r="A60" s="52" t="s">
+        <v>74</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -3545,8 +3616,8 @@
       <c r="Q60" s="1"/>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="56" t="s">
-        <v>71</v>
+      <c r="A61" s="52" t="s">
+        <v>75</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -3567,7 +3638,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="3"/>
@@ -3587,8 +3658,8 @@
       <c r="Q62" s="1"/>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63" s="56" t="s">
-        <v>73</v>
+      <c r="A63" s="52" t="s">
+        <v>77</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3608,8 +3679,8 @@
       <c r="Q63" s="1"/>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" s="56" t="s">
-        <v>74</v>
+      <c r="A64" s="52" t="s">
+        <v>78</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3630,7 +3701,7 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="3"/>
@@ -3650,8 +3721,8 @@
       <c r="Q65" s="1"/>
     </row>
     <row r="66" spans="1:17">
-      <c r="A66" s="56" t="s">
-        <v>76</v>
+      <c r="A66" s="52" t="s">
+        <v>80</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3671,8 +3742,8 @@
       <c r="Q66" s="1"/>
     </row>
     <row r="67" spans="1:17">
-      <c r="A67" s="56" t="s">
-        <v>77</v>
+      <c r="A67" s="52" t="s">
+        <v>81</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3692,8 +3763,8 @@
       <c r="Q67" s="1"/>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" s="56" t="s">
-        <v>78</v>
+      <c r="A68" s="52" t="s">
+        <v>82</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3713,8 +3784,8 @@
       <c r="Q68" s="1"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="56" t="s">
-        <v>79</v>
+      <c r="A69" s="52" t="s">
+        <v>83</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3734,8 +3805,8 @@
       <c r="Q69" s="1"/>
     </row>
     <row r="70" spans="1:17">
-      <c r="A70" s="56" t="s">
-        <v>80</v>
+      <c r="A70" s="52" t="s">
+        <v>84</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3755,8 +3826,8 @@
       <c r="Q70" s="1"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="56" t="s">
-        <v>81</v>
+      <c r="A71" s="52" t="s">
+        <v>85</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3776,8 +3847,8 @@
       <c r="Q71" s="1"/>
     </row>
     <row r="72" spans="1:17">
-      <c r="A72" s="56" t="s">
-        <v>82</v>
+      <c r="A72" s="52" t="s">
+        <v>86</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -3797,8 +3868,8 @@
       <c r="Q72" s="1"/>
     </row>
     <row r="73" spans="1:17">
-      <c r="A73" s="56" t="s">
-        <v>83</v>
+      <c r="A73" s="52" t="s">
+        <v>87</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3875,8 +3946,8 @@
       <c r="Q76" s="1"/>
     </row>
     <row r="77" spans="1:17">
-      <c r="A77" s="56" t="s">
-        <v>84</v>
+      <c r="A77" s="52" t="s">
+        <v>88</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3896,8 +3967,8 @@
       <c r="Q77" s="1"/>
     </row>
     <row r="78" spans="1:17">
-      <c r="A78" s="57" t="s">
-        <v>85</v>
+      <c r="A78" s="53" t="s">
+        <v>89</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3917,8 +3988,8 @@
       <c r="Q78" s="1"/>
     </row>
     <row r="79" spans="1:17">
-      <c r="A79" s="56" t="s">
-        <v>86</v>
+      <c r="A79" s="52" t="s">
+        <v>90</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3938,8 +4009,8 @@
       <c r="Q79" s="1"/>
     </row>
     <row r="80" spans="1:17">
-      <c r="A80" s="58" t="s">
-        <v>87</v>
+      <c r="A80" s="54" t="s">
+        <v>91</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="3"/>
@@ -3959,8 +4030,8 @@
       <c r="Q80" s="1"/>
     </row>
     <row r="81" spans="1:17">
-      <c r="A81" s="56" t="s">
-        <v>88</v>
+      <c r="A81" s="52" t="s">
+        <v>92</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3981,7 +4052,7 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="24" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="3"/>
@@ -4001,8 +4072,8 @@
       <c r="Q82" s="1"/>
     </row>
     <row r="83" spans="1:17">
-      <c r="A83" s="56" t="s">
-        <v>90</v>
+      <c r="A83" s="52" t="s">
+        <v>94</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -4022,8 +4093,8 @@
       <c r="Q83" s="1"/>
     </row>
     <row r="84" spans="1:17">
-      <c r="A84" s="56" t="s">
-        <v>91</v>
+      <c r="A84" s="52" t="s">
+        <v>95</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4043,8 +4114,8 @@
       <c r="Q84" s="1"/>
     </row>
     <row r="85" spans="1:17">
-      <c r="A85" s="56" t="s">
-        <v>92</v>
+      <c r="A85" s="52" t="s">
+        <v>96</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -4064,8 +4135,8 @@
       <c r="Q85" s="1"/>
     </row>
     <row r="86" spans="1:17">
-      <c r="A86" s="56" t="s">
-        <v>93</v>
+      <c r="A86" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -4085,8 +4156,8 @@
       <c r="Q86" s="1"/>
     </row>
     <row r="87" spans="1:17">
-      <c r="A87" s="56" t="s">
-        <v>94</v>
+      <c r="A87" s="52" t="s">
+        <v>98</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4163,8 +4234,8 @@
       <c r="Q90" s="1"/>
     </row>
     <row r="91" spans="1:17">
-      <c r="A91" s="56" t="s">
-        <v>95</v>
+      <c r="A91" s="52" t="s">
+        <v>99</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -4184,8 +4255,8 @@
       <c r="Q91" s="1"/>
     </row>
     <row r="92" spans="1:17">
-      <c r="A92" s="56" t="s">
-        <v>96</v>
+      <c r="A92" s="52" t="s">
+        <v>100</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -4205,8 +4276,8 @@
       <c r="Q92" s="1"/>
     </row>
     <row r="93" spans="1:17">
-      <c r="A93" s="59" t="s">
-        <v>97</v>
+      <c r="A93" s="55" t="s">
+        <v>101</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -4226,8 +4297,8 @@
       <c r="Q93" s="1"/>
     </row>
     <row r="94" spans="1:17">
-      <c r="A94" s="59" t="s">
-        <v>98</v>
+      <c r="A94" s="55" t="s">
+        <v>102</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4247,8 +4318,8 @@
       <c r="Q94" s="1"/>
     </row>
     <row r="95" spans="1:17">
-      <c r="A95" s="59" t="s">
-        <v>99</v>
+      <c r="A95" s="55" t="s">
+        <v>103</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4345,7 +4416,7 @@
     </row>
     <row r="100" spans="1:17">
       <c r="A100" s="1"/>
-      <c r="B100" s="59"/>
+      <c r="B100" s="55"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -4364,7 +4435,7 @@
     </row>
     <row r="101" spans="1:17" customHeight="1" ht="15.6">
       <c r="A101" s="1"/>
-      <c r="B101" s="60"/>
+      <c r="B101" s="56"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -4383,7 +4454,7 @@
     </row>
     <row r="102" spans="1:17" customHeight="1" ht="15.6">
       <c r="A102" s="1"/>
-      <c r="B102" s="60"/>
+      <c r="B102" s="56"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -4516,7 +4587,7 @@
     </row>
     <row r="109" spans="1:17" customHeight="1" ht="15.6">
       <c r="A109" s="1"/>
-      <c r="B109" s="61"/>
+      <c r="B109" s="57"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -4648,6 +4719,15 @@
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="K36:L36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="K39:L39"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="E11">
@@ -4678,403 +4758,1033 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B40" sqref="B40:E47"/>
+      <selection activeCell="B40" sqref="B40:K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" width="24.708" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="31.707" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="29.421" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="31.707" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="19.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="36.42" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="32.992" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="39.99" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="38.848" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8">
-      <c r="B3" s="108" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="111" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="107"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="107" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="107">
+    <row r="3" spans="1:14">
+      <c r="B3" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="107" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="107" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="107" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" s="101"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="101">
         <v>0</v>
       </c>
-      <c r="D6" s="116">
-        <v>162.0</v>
-      </c>
-      <c r="E6" s="107"/>
-      <c r="G6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="107" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="107">
+      <c r="D6" s="101">
         <v>0</v>
       </c>
-      <c r="D7" s="117">
-        <v>0.55</v>
-      </c>
-      <c r="E7" s="107"/>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="107" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="114">
-        <v>36.333333333333</v>
-      </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="112" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="114">
+      <c r="E6" s="101">
+        <v>0</v>
+      </c>
+      <c r="F6" s="101">
+        <v>0</v>
+      </c>
+      <c r="G6" s="101">
+        <v>0</v>
+      </c>
+      <c r="H6" s="101">
+        <v>0</v>
+      </c>
+      <c r="I6" s="101">
+        <v>0</v>
+      </c>
+      <c r="J6" s="110">
+        <v>1.11</v>
+      </c>
+      <c r="K6" s="101"/>
+      <c r="M6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="101">
+        <v>0</v>
+      </c>
+      <c r="D7" s="101">
+        <v>0</v>
+      </c>
+      <c r="E7" s="101">
+        <v>0</v>
+      </c>
+      <c r="F7" s="101">
+        <v>0</v>
+      </c>
+      <c r="G7" s="101">
+        <v>0</v>
+      </c>
+      <c r="H7" s="101">
+        <v>0</v>
+      </c>
+      <c r="I7" s="101">
+        <v>0</v>
+      </c>
+      <c r="J7" s="111">
+        <v>1.29</v>
+      </c>
+      <c r="K7" s="101"/>
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7">
+        <v>445.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="108">
+        <v>64.0</v>
+      </c>
+      <c r="D8" s="108">
+        <v>30.0</v>
+      </c>
+      <c r="E8" s="108">
+        <v>195.5</v>
+      </c>
+      <c r="F8" s="108">
+        <v>108.75</v>
+      </c>
+      <c r="G8" s="108">
+        <v>54.166666666667</v>
+      </c>
+      <c r="H8" s="108">
+        <v>21.0</v>
+      </c>
+      <c r="I8" s="108">
+        <v>37.5</v>
+      </c>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="106" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="108">
         <v>0.0</v>
       </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="107" t="s">
+      <c r="D9" s="108">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="108">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="108">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="108">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="108">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="108">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="101">
+        <v>24.0</v>
+      </c>
+      <c r="D10" s="101">
+        <v>10.0</v>
+      </c>
+      <c r="E10" s="101">
+        <v>12.0</v>
+      </c>
+      <c r="F10" s="101">
+        <v>12.0</v>
+      </c>
+      <c r="G10" s="101">
+        <v>24.0</v>
+      </c>
+      <c r="H10" s="101">
+        <v>12.0</v>
+      </c>
+      <c r="I10" s="101">
+        <v>12.0</v>
+      </c>
+      <c r="J10" s="101">
+        <f>SUM(C10:I10)</f>
         <v>106</v>
       </c>
-      <c r="C10" s="107">
-        <v>45.0</v>
-      </c>
-      <c r="D10" s="107">
-        <f>SUM(C10:C10)</f>
-        <v>45</v>
-      </c>
-      <c r="E10" s="107"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="107" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="114">
+      <c r="K10" s="101"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="108">
         <f>C8*C10</f>
-        <v>1635</v>
-      </c>
-      <c r="D11" s="107">
-        <f>SUM(C11:C11)</f>
-        <v>1635</v>
-      </c>
-      <c r="E11" s="107"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="112" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="114">
+        <v>1536</v>
+      </c>
+      <c r="D11" s="108">
+        <f>D8*D10</f>
+        <v>300</v>
+      </c>
+      <c r="E11" s="108">
+        <f>E8*E10</f>
+        <v>2346</v>
+      </c>
+      <c r="F11" s="108">
+        <f>F8*F10</f>
+        <v>1305</v>
+      </c>
+      <c r="G11" s="108">
+        <f>G8*G10</f>
+        <v>1300</v>
+      </c>
+      <c r="H11" s="108">
+        <f>H8*H10</f>
+        <v>252</v>
+      </c>
+      <c r="I11" s="108">
+        <f>I8*I10</f>
+        <v>450</v>
+      </c>
+      <c r="J11" s="101">
+        <f>SUM(C11:I11)</f>
+        <v>7489</v>
+      </c>
+      <c r="K11" s="101"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="108">
         <f>C10*C9</f>
         <v>0</v>
       </c>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="107" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="115">
-        <f>C11/D11</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="107" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="114">
-        <f>D14*C13</f>
-        <v>168</v>
-      </c>
-      <c r="D14" s="107">
-        <f>IF(D7&lt;1, H7*0.6, H7*0.6*D7)</f>
-        <v>168</v>
-      </c>
-      <c r="E14" s="107"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="107" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="114">
+      <c r="D12" s="108">
+        <f>D10*D9</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="108">
+        <f>E10*E9</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="108">
+        <f>F10*F9</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="108">
+        <f>G10*G9</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="108">
+        <f>H10*H9</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="108">
+        <f>I10*I9</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="109">
+        <f>C11/J11</f>
+        <v>0.20510081452797</v>
+      </c>
+      <c r="D13" s="109">
+        <f>D11/J11</f>
+        <v>0.040058752837495</v>
+      </c>
+      <c r="E13" s="109">
+        <f>E11/J11</f>
+        <v>0.31325944718921</v>
+      </c>
+      <c r="F13" s="109">
+        <f>F11/J11</f>
+        <v>0.1742555748431</v>
+      </c>
+      <c r="G13" s="109">
+        <f>G11/J11</f>
+        <v>0.17358792896248</v>
+      </c>
+      <c r="H13" s="109">
+        <f>H11/J11</f>
+        <v>0.033649352383496</v>
+      </c>
+      <c r="I13" s="109">
+        <f>I11/J11</f>
+        <v>0.060088129256242</v>
+      </c>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="108">
+        <f>J14*C13</f>
+        <v>70.64287354787</v>
+      </c>
+      <c r="D14" s="108">
+        <f>J14*D13</f>
+        <v>13.797436239818</v>
+      </c>
+      <c r="E14" s="108">
+        <f>J14*E13</f>
+        <v>107.89595139538</v>
+      </c>
+      <c r="F14" s="108">
+        <f>J14*F13</f>
+        <v>60.01884764321</v>
+      </c>
+      <c r="G14" s="108">
+        <f>J14*G13</f>
+        <v>59.788890372547</v>
+      </c>
+      <c r="H14" s="108">
+        <f>J14*H13</f>
+        <v>11.589846441447</v>
+      </c>
+      <c r="I14" s="108">
+        <f>J14*I13</f>
+        <v>20.696154359728</v>
+      </c>
+      <c r="J14" s="101">
+        <f>IF(J7&lt;1, N7*0.6, N7*0.6*J7)</f>
+        <v>344.43</v>
+      </c>
+      <c r="K14" s="101"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="108">
         <f>C11+C14</f>
-        <v>1803</v>
-      </c>
-      <c r="D15" s="118">
-        <f>SUM(C15:C15)</f>
-        <v>1803</v>
-      </c>
-      <c r="E15" s="107"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="112" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="114">
+        <v>1606.6428735479</v>
+      </c>
+      <c r="D15" s="108">
+        <f>D11+D14</f>
+        <v>313.79743623982</v>
+      </c>
+      <c r="E15" s="108">
+        <f>E11+E14</f>
+        <v>2453.8959513954</v>
+      </c>
+      <c r="F15" s="108">
+        <f>F11+F14</f>
+        <v>1365.0188476432</v>
+      </c>
+      <c r="G15" s="108">
+        <f>G11+G14</f>
+        <v>1359.7888903726</v>
+      </c>
+      <c r="H15" s="108">
+        <f>H11+H14</f>
+        <v>263.58984644145</v>
+      </c>
+      <c r="I15" s="108">
+        <f>I11+I14</f>
+        <v>470.69615435973</v>
+      </c>
+      <c r="J15" s="112">
+        <f>SUM(C15:I15)</f>
+        <v>7833.43</v>
+      </c>
+      <c r="K15" s="101"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="108">
         <f>C12+C14</f>
-        <v>168</v>
-      </c>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="B17" s="107" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="114">
-        <f>IF(D11&gt;5000,100*C13,50*C13)</f>
-        <v>50</v>
-      </c>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="B18" s="107" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="114">
+        <v>70.64287354787</v>
+      </c>
+      <c r="D16" s="108">
+        <f>D12+D14</f>
+        <v>13.797436239818</v>
+      </c>
+      <c r="E16" s="108">
+        <f>E12+E14</f>
+        <v>107.89595139538</v>
+      </c>
+      <c r="F16" s="108">
+        <f>F12+F14</f>
+        <v>60.01884764321</v>
+      </c>
+      <c r="G16" s="108">
+        <f>G12+G14</f>
+        <v>59.788890372547</v>
+      </c>
+      <c r="H16" s="108">
+        <f>H12+H14</f>
+        <v>11.589846441447</v>
+      </c>
+      <c r="I16" s="108">
+        <f>I12+I14</f>
+        <v>20.696154359728</v>
+      </c>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="B17" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="108">
+        <f>IF(J11&gt;5000,100*C13,50*C13)</f>
+        <v>20.510081452797</v>
+      </c>
+      <c r="D17" s="108">
+        <f>IF(J11&gt;5000,100*D13,50*D13)</f>
+        <v>4.0058752837495</v>
+      </c>
+      <c r="E17" s="108">
+        <f>IF(J11&gt;5000,100*E13,50*E13)</f>
+        <v>31.325944718921</v>
+      </c>
+      <c r="F17" s="108">
+        <f>IF(J11&gt;5000,100*F13,50*F13)</f>
+        <v>17.42555748431</v>
+      </c>
+      <c r="G17" s="108">
+        <f>IF(J11&gt;5000,100*G13,50*G13)</f>
+        <v>17.358792896248</v>
+      </c>
+      <c r="H17" s="108">
+        <f>IF(J11&gt;5000,100*H13,50*H13)</f>
+        <v>3.3649352383496</v>
+      </c>
+      <c r="I17" s="108">
+        <f>IF(J11&gt;5000,100*I13,50*I13)</f>
+        <v>6.0088129256242</v>
+      </c>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="B18" s="101" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="108">
         <f>C15+C17</f>
-        <v>1853</v>
-      </c>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="B19" s="112" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="114">
+        <v>1627.1529550007</v>
+      </c>
+      <c r="D18" s="108">
+        <f>D15+D17</f>
+        <v>317.80331152357</v>
+      </c>
+      <c r="E18" s="108">
+        <f>E15+E17</f>
+        <v>2485.2218961143</v>
+      </c>
+      <c r="F18" s="108">
+        <f>F15+F17</f>
+        <v>1382.4444051275</v>
+      </c>
+      <c r="G18" s="108">
+        <f>G15+G17</f>
+        <v>1377.1476832688</v>
+      </c>
+      <c r="H18" s="108">
+        <f>H15+H17</f>
+        <v>266.9547816798</v>
+      </c>
+      <c r="I18" s="108">
+        <f>I15+I17</f>
+        <v>476.70496728535</v>
+      </c>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="B19" s="106" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="108">
         <f>C16+C17</f>
-        <v>218</v>
-      </c>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="B23" s="108" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-    </row>
-    <row r="26" spans="1:8">
+        <v>91.152955000668</v>
+      </c>
+      <c r="D19" s="108">
+        <f>D16+D17</f>
+        <v>17.803311523568</v>
+      </c>
+      <c r="E19" s="108">
+        <f>E16+E17</f>
+        <v>139.2218961143</v>
+      </c>
+      <c r="F19" s="108">
+        <f>F16+F17</f>
+        <v>77.44440512752</v>
+      </c>
+      <c r="G19" s="108">
+        <f>G16+G17</f>
+        <v>77.147683268795</v>
+      </c>
+      <c r="H19" s="108">
+        <f>H16+H17</f>
+        <v>14.954781679797</v>
+      </c>
+      <c r="I19" s="108">
+        <f>I16+I17</f>
+        <v>26.704967285352</v>
+      </c>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="B23" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="109">
+        <v>35</v>
+      </c>
+      <c r="C26" s="103">
         <v>0</v>
       </c>
-      <c r="D26" s="109">
-        <f>SUM(C26:C26)</f>
+      <c r="D26" s="103">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="C27" s="110">
+      <c r="E26" s="103">
+        <v>0</v>
+      </c>
+      <c r="F26" s="103">
+        <v>0</v>
+      </c>
+      <c r="G26" s="103">
+        <v>0</v>
+      </c>
+      <c r="H26" s="103">
+        <v>0</v>
+      </c>
+      <c r="I26" s="103">
+        <v>0</v>
+      </c>
+      <c r="J26" s="103">
+        <f>SUM(C26:I26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="C27" s="104">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="B28" s="107" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="114">
+      <c r="D27" s="104">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="104">
+        <v>0.0</v>
+      </c>
+      <c r="F27" s="104">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="104">
+        <v>0.0</v>
+      </c>
+      <c r="H27" s="104">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="104">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="B28" s="101" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="108">
         <f>MAX(C19,C18)*C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="114">
-        <f>SUM(C28:C28)</f>
+      <c r="D28" s="108">
+        <f>MAX(D19,D18)*D27</f>
         <v>0</v>
       </c>
-      <c r="E28" s="107"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="B29" s="107" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="114">
+      <c r="E28" s="108">
+        <f>MAX(E19,E18)*E27</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="108">
+        <f>MAX(F19,F18)*F27</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="108">
+        <f>MAX(G19,G18)*G27</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="108">
+        <f>MAX(H19,H18)*H27</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="108">
+        <f>MAX(I19,I18)*I27</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="108">
+        <f>SUM(C28:I28)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="101"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="B29" s="101" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="108">
         <f>0.16*(MAX(C19,C18)+C28)</f>
-        <v>296.48</v>
-      </c>
-      <c r="D29" s="114">
-        <f>SUM(C29:C29)</f>
-        <v>296.48</v>
-      </c>
-      <c r="E29" s="107"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="B30" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="114">
+        <v>260.34447280011</v>
+      </c>
+      <c r="D29" s="108">
+        <f>0.16*(MAX(D19,D18)+D28)</f>
+        <v>50.848529843771</v>
+      </c>
+      <c r="E29" s="108">
+        <f>0.16*(MAX(E19,E18)+E28)</f>
+        <v>397.63550337829</v>
+      </c>
+      <c r="F29" s="108">
+        <f>0.16*(MAX(F19,F18)+F28)</f>
+        <v>221.1911048204</v>
+      </c>
+      <c r="G29" s="108">
+        <f>0.16*(MAX(G19,G18)+G28)</f>
+        <v>220.34362932301</v>
+      </c>
+      <c r="H29" s="108">
+        <f>0.16*(MAX(H19,H18)+H28)</f>
+        <v>42.712765068768</v>
+      </c>
+      <c r="I29" s="108">
+        <f>0.16*(MAX(I19,I18)+I28)</f>
+        <v>76.272794765656</v>
+      </c>
+      <c r="J29" s="108">
+        <f>SUM(C29:I29)</f>
+        <v>1269.3488</v>
+      </c>
+      <c r="K29" s="101"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="B30" s="101" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="108">
         <f>0.02*(MAX(C19,C18)+C28)</f>
-        <v>37.06</v>
-      </c>
-      <c r="D30" s="114">
-        <f>SUM(C30:C30)</f>
-        <v>37.06</v>
-      </c>
-      <c r="E30" s="107"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="B31" s="107" t="s">
+        <v>32.543059100013</v>
+      </c>
+      <c r="D30" s="108">
+        <f>0.02*(MAX(D19,D18)+D28)</f>
+        <v>6.3560662304714</v>
+      </c>
+      <c r="E30" s="108">
+        <f>0.02*(MAX(E19,E18)+E28)</f>
+        <v>49.704437922286</v>
+      </c>
+      <c r="F30" s="108">
+        <f>0.02*(MAX(F19,F18)+F28)</f>
+        <v>27.64888810255</v>
+      </c>
+      <c r="G30" s="108">
+        <f>0.02*(MAX(G19,G18)+G28)</f>
+        <v>27.542953665376</v>
+      </c>
+      <c r="H30" s="108">
+        <f>0.02*(MAX(H19,H18)+H28)</f>
+        <v>5.3390956335959</v>
+      </c>
+      <c r="I30" s="108">
+        <f>0.02*(MAX(I19,I18)+I28)</f>
+        <v>9.534099345707</v>
+      </c>
+      <c r="J30" s="108">
+        <f>SUM(C30:I30)</f>
+        <v>158.6686</v>
+      </c>
+      <c r="K30" s="101"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="101" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="108">
+        <f>0.035*(MAX(C18,C19) +C28+C29+C30)</f>
+        <v>67.201417041528</v>
+      </c>
+      <c r="D31" s="108">
+        <f>0.035*(MAX(D18,D19) +D28+D29+D30)</f>
+        <v>13.125276765923</v>
+      </c>
+      <c r="E31" s="108">
+        <f>0.035*(MAX(E18,E19) +E28+E29+E30)</f>
+        <v>102.63966430952</v>
+      </c>
+      <c r="F31" s="108">
+        <f>0.035*(MAX(F18,F19) +F28+F29+F30)</f>
+        <v>57.094953931767</v>
+      </c>
+      <c r="G31" s="108">
+        <f>0.035*(MAX(G18,G19) +G28+G29+G30)</f>
+        <v>56.876199319002</v>
+      </c>
+      <c r="H31" s="108">
+        <f>0.035*(MAX(H18,H19) +H28+H29+H30)</f>
+        <v>11.025232483376</v>
+      </c>
+      <c r="I31" s="108">
+        <f>0.035*(MAX(I18,I19) +I28+I29+I30)</f>
+        <v>19.687915148885</v>
+      </c>
+      <c r="J31" s="108">
+        <f>SUM(C31:I31)</f>
+        <v>327.650659</v>
+      </c>
+      <c r="K31" s="101"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="B32" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="108">
+        <f>SUM(C28:C31)</f>
+        <v>360.08894894165</v>
+      </c>
+      <c r="D32" s="108">
+        <f>SUM(D28:D31)</f>
+        <v>70.329872840166</v>
+      </c>
+      <c r="E32" s="108">
+        <f>SUM(E28:E31)</f>
+        <v>549.97960561009</v>
+      </c>
+      <c r="F32" s="108">
+        <f>SUM(F28:F31)</f>
+        <v>305.93494685472</v>
+      </c>
+      <c r="G32" s="108">
+        <f>SUM(G28:G31)</f>
+        <v>304.76278230739</v>
+      </c>
+      <c r="H32" s="108">
+        <f>SUM(H28:H31)</f>
+        <v>59.077093185739</v>
+      </c>
+      <c r="I32" s="108">
+        <f>SUM(I28:I31)</f>
+        <v>105.49480926025</v>
+      </c>
+      <c r="J32" s="108">
+        <f>SUM(J28:J31)</f>
+        <v>1755.668059</v>
+      </c>
+      <c r="K32" s="101"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="B37" s="102" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="B40" s="101" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="108">
+        <f>C13*J40</f>
+        <v>47.095249031913</v>
+      </c>
+      <c r="D40" s="108">
+        <f>D13*J40</f>
+        <v>9.1982908265456</v>
+      </c>
+      <c r="E40" s="108">
+        <f>E13*J40</f>
+        <v>71.930634263587</v>
+      </c>
+      <c r="F40" s="108">
+        <f>F13*J40</f>
+        <v>40.012565095473</v>
+      </c>
+      <c r="G40" s="108">
+        <f>G13*J40</f>
+        <v>39.859260248364</v>
+      </c>
+      <c r="H40" s="108">
+        <f>H13*J40</f>
+        <v>7.7265642942983</v>
+      </c>
+      <c r="I40" s="108">
+        <f>I13*J40</f>
+        <v>13.797436239818</v>
+      </c>
+      <c r="J40" s="101">
+        <f>IF(J7&lt;1, N7*0.4, N7*0.4*J7)</f>
+        <v>229.62</v>
+      </c>
+      <c r="K40" s="101"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="B41" s="101"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="101"/>
+      <c r="J41" s="101"/>
+      <c r="K41" s="101"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="B42" s="101"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="101"/>
+      <c r="K42" s="101"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="B43" s="101" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="101" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="101" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="101" t="s">
+        <v>120</v>
+      </c>
+      <c r="H43" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="114">
-        <f>0.035*(MAX(C18,C19) +C28+C29+C30)</f>
-        <v>76.528899999999</v>
-      </c>
-      <c r="D31" s="114">
-        <f>SUM(C31:C31)</f>
-        <v>76.528899999999</v>
-      </c>
-      <c r="E31" s="107"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="B32" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="114">
-        <f>SUM(C28:C31)</f>
-        <v>410.0689</v>
-      </c>
-      <c r="D32" s="114">
-        <f>SUM(D28:D31)</f>
-        <v>410.0689</v>
-      </c>
-      <c r="E32" s="107"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="B37" s="108" t="s">
+      <c r="I43" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="B40" s="107" t="s">
+      <c r="J43" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="114">
-        <f>C13*D40</f>
-        <v>112</v>
-      </c>
-      <c r="D40" s="107">
-        <f>IF(D7&lt;1, H7*0.4, H7*0.4*D7)</f>
-        <v>112</v>
-      </c>
-      <c r="E40" s="107"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="B43" s="107" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="107" t="s">
-        <v>116</v>
-      </c>
-      <c r="E43" s="107"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="B44" s="107" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="114">
+      <c r="K43" s="101"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="B44" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="108">
         <f>SUM(C15,C40,C32,(C26))</f>
-        <v>2325.0689</v>
-      </c>
-      <c r="D44" s="114">
-        <f>SUM(C44:C44)</f>
-        <v>2325.0689</v>
-      </c>
-      <c r="E44" s="107"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="B45" s="107" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" s="107">
-        <v>45.0</v>
-      </c>
-      <c r="D45" s="107"/>
-      <c r="E45" s="107"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="B46" s="107" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" s="114">
+        <v>2013.8270715214</v>
+      </c>
+      <c r="D44" s="108">
+        <f>SUM(D15,D40,D32,(D26))</f>
+        <v>393.32559990653</v>
+      </c>
+      <c r="E44" s="108">
+        <f>SUM(E15,E40,E32,(E26))</f>
+        <v>3075.8061912691</v>
+      </c>
+      <c r="F44" s="108">
+        <f>SUM(F15,F40,F32,(F26))</f>
+        <v>1710.9663595934</v>
+      </c>
+      <c r="G44" s="108">
+        <f>SUM(G15,G40,G32,(G26))</f>
+        <v>1704.4109329283</v>
+      </c>
+      <c r="H44" s="108">
+        <f>SUM(H15,H40,H32,(H26))</f>
+        <v>330.39350392148</v>
+      </c>
+      <c r="I44" s="108">
+        <f>SUM(I15,I40,I32,(I26))</f>
+        <v>589.98839985979</v>
+      </c>
+      <c r="J44" s="108">
+        <f>SUM(C44:I44)</f>
+        <v>9818.718059</v>
+      </c>
+      <c r="K44" s="101"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="B45" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="101">
+        <v>24.0</v>
+      </c>
+      <c r="D45" s="101">
+        <v>10.0</v>
+      </c>
+      <c r="E45" s="101">
+        <v>12.0</v>
+      </c>
+      <c r="F45" s="101">
+        <v>12.0</v>
+      </c>
+      <c r="G45" s="101">
+        <v>24.0</v>
+      </c>
+      <c r="H45" s="101">
+        <v>12.0</v>
+      </c>
+      <c r="I45" s="101">
+        <v>12.0</v>
+      </c>
+      <c r="J45" s="101"/>
+      <c r="K45" s="101"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="B46" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="108">
         <f>SUM(C44/C45)</f>
-        <v>51.668197777777</v>
-      </c>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="B47" s="107" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47" s="119">
+        <v>83.909461313393</v>
+      </c>
+      <c r="D46" s="108">
+        <f>SUM(D44/D45)</f>
+        <v>39.332559990653</v>
+      </c>
+      <c r="E46" s="108">
+        <f>SUM(E44/E45)</f>
+        <v>256.31718260576</v>
+      </c>
+      <c r="F46" s="108">
+        <f>SUM(F44/F45)</f>
+        <v>142.58052996612</v>
+      </c>
+      <c r="G46" s="108">
+        <f>SUM(G44/G45)</f>
+        <v>71.017122205346</v>
+      </c>
+      <c r="H46" s="108">
+        <f>SUM(H44/H45)</f>
+        <v>27.532791993457</v>
+      </c>
+      <c r="I46" s="108">
+        <f>SUM(I44/I45)</f>
+        <v>49.165699988316</v>
+      </c>
+      <c r="J46" s="101"/>
+      <c r="K46" s="101"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="B47" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="113">
         <f>C46*3.7</f>
-        <v>191.17233177778</v>
-      </c>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
+        <v>310.46500685955</v>
+      </c>
+      <c r="D47" s="113">
+        <f>D46*3.7</f>
+        <v>145.53047196542</v>
+      </c>
+      <c r="E47" s="113">
+        <f>E46*3.7</f>
+        <v>948.37357564129</v>
+      </c>
+      <c r="F47" s="113">
+        <f>F46*3.7</f>
+        <v>527.54796087463</v>
+      </c>
+      <c r="G47" s="113">
+        <f>G46*3.7</f>
+        <v>262.76335215978</v>
+      </c>
+      <c r="H47" s="113">
+        <f>H46*3.7</f>
+        <v>101.87133037579</v>
+      </c>
+      <c r="I47" s="113">
+        <f>I46*3.7</f>
+        <v>181.91308995677</v>
+      </c>
+      <c r="J47" s="101"/>
+      <c r="K47" s="101"/>
     </row>
   </sheetData>
   <mergeCells>
